--- a/public/uploads/exports/category_list.xlsx
+++ b/public/uploads/exports/category_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -28,19 +28,25 @@
     <t>Status</t>
   </si>
   <si>
-    <t>New Category1</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Mango</t>
-  </si>
-  <si>
-    <t>Apple</t>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -444,7 +450,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -458,7 +464,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -472,7 +478,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -481,6 +487,20 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
